--- a/Auto_RRSIandWiFiSAR_Report/RSSI_Report.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/RSSI_Report.xlsx
@@ -628,11 +628,16 @@
           <t>7228979800008</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="C2" t="n">
         <v>-51</v>
       </c>
       <c r="D2" t="n">
-        <v>-55</v>
+        <v>-51</v>
       </c>
       <c r="E2" t="n">
         <v>-65</v>
@@ -938,11 +943,16 @@
           <t>7228979800009</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="C17" t="n">
         <v>-52</v>
       </c>
       <c r="D17" t="n">
-        <v>-56</v>
+        <v>-52</v>
       </c>
       <c r="E17" t="n">
         <v>-65</v>
@@ -996,11 +1006,16 @@
           <t>7228979800010</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="C20" t="n">
         <v>-48</v>
       </c>
       <c r="D20" t="n">
-        <v>-44</v>
+        <v>-48</v>
       </c>
       <c r="E20" t="n">
         <v>-65</v>
